--- a/resources/wheels/491 - Пстыга.xlsx
+++ b/resources/wheels/491 - Пстыга.xlsx
@@ -22,7 +22,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -692,16 +692,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -898,9 +898,9 @@
       <c r="F16" s="19">
         <v>0.4</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>3.6</v>
+        <v>5.046</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -994,7 +994,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.438</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -1004,7 +1006,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>0.608</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -1014,7 +1018,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>0.4</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -1533,16 +1539,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1735,9 +1741,9 @@
       <c r="F16" s="19">
         <v>17.3</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>20.499999999999996</v>
+        <v>21.945999999999994</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -1831,7 +1837,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.438</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -1841,7 +1849,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>0.608</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -1851,7 +1861,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>0.4</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -2370,16 +2382,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2572,9 +2584,9 @@
       <c r="F16" s="19">
         <v>17.3</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>20.499999999999996</v>
+        <v>21.945999999999994</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -2668,7 +2680,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.438</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -2678,7 +2692,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>0.608</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -2688,7 +2704,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>0.4</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -3207,16 +3225,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3409,9 +3427,9 @@
       <c r="F16" s="19">
         <v>17.3</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>20.499999999999996</v>
+        <v>21.945999999999994</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -3505,7 +3523,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.438</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -3515,7 +3535,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>0.608</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -3525,7 +3547,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>0.4</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -4044,16 +4068,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4250,9 +4274,9 @@
       <c r="F16" s="19">
         <v>0.4</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>3.6</v>
+        <v>5.046</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -4346,7 +4370,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.438</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -4356,7 +4382,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>0.608</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -4366,7 +4394,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>0.4</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -4885,16 +4915,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5091,9 +5121,9 @@
       <c r="F16" s="19">
         <v>0.4</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>3.6</v>
+        <v>5.046</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -5187,7 +5217,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.438</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -5197,7 +5229,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>0.608</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -5207,7 +5241,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>0.4</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -5726,16 +5762,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5932,9 +5968,9 @@
       <c r="F16" s="19">
         <v>0.4</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>3.6</v>
+        <v>5.046</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6028,7 +6064,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.438</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -6038,7 +6076,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>0.608</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -6048,7 +6088,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>0.4</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -6567,16 +6609,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6773,9 +6815,9 @@
       <c r="F16" s="19">
         <v>0.4</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>3.6</v>
+        <v>5.046</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6869,7 +6911,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.438</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -6879,7 +6923,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>0.608</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -6889,7 +6935,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>0.4</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -7408,16 +7456,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7614,9 +7662,9 @@
       <c r="F16" s="19">
         <v>0.4</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>3.6</v>
+        <v>5.046</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -7710,7 +7758,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.438</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -7720,7 +7770,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>0.608</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -7730,7 +7782,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>0.4</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -8249,16 +8303,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8455,9 +8509,9 @@
       <c r="F16" s="19">
         <v>0.4</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>3.6</v>
+        <v>5.046</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -8551,7 +8605,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.438</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -8561,7 +8617,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>0.608</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -8571,7 +8629,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>0.4</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -9090,16 +9150,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9296,9 +9356,9 @@
       <c r="F16" s="19">
         <v>0.4</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>3.6</v>
+        <v>5.046</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -9392,7 +9452,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.438</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -9402,7 +9464,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>0.608</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -9412,7 +9476,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>0.4</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -9931,16 +9997,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10133,9 +10199,9 @@
       <c r="F16" s="19">
         <v>17.3</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>20.499999999999996</v>
+        <v>21.945999999999994</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -10229,7 +10295,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>0.438</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -10239,7 +10307,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>0.608</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -10249,7 +10319,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>0.4</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
